--- a/biology/Biologie cellulaire et moléculaire/Scoliidae/Scoliidae.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Scoliidae/Scoliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Scoliidae sont une famille de guêpes solitaires qui parasitent les larves de coléoptères de la famille des Scarabeidae. 
 On en compte environ 300 espèces à travers le monde. 
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Scoliidae vient du grec Σκολιός, « courbe », référence au labium courbe trifide[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Scoliidae vient du grec Σκολιός, « courbe », référence au labium courbe trifide.
 </t>
         </is>
       </c>
@@ -545,10 +559,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Anatomie interne
-Appareil venimeux
-Comme les autres Hyménoptères aculéates ou porte-aiguillons, les Scolies possèdent un appareil venimeux leur permettant de paralyser les larves d'insectes appartenant à des ordres différents, coléoptères en particulier (Scarabaeidae, Melolonthidae).
-Chez toutes les espèces étudiées sur le plan histologique, cet appareil comporte une glande acide, une glande alcaline et surtout, une glande annexe ou accessoire caractéristique de la famille (Lopez)[2],[3]. 
+          <t>Anatomie interne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Appareil venimeux</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comme les autres Hyménoptères aculéates ou porte-aiguillons, les Scolies possèdent un appareil venimeux leur permettant de paralyser les larves d'insectes appartenant à des ordres différents, coléoptères en particulier (Scarabaeidae, Melolonthidae).
+Chez toutes les espèces étudiées sur le plan histologique, cet appareil comporte une glande acide, une glande alcaline et surtout, une glande annexe ou accessoire caractéristique de la famille (Lopez),. 
 Glande acide
 Glande alcaline
 Glande accessoire</t>
@@ -579,13 +601,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La famille des Scoliidae a été décrite par l'entomologiste français Pierre André Latreille en 1802.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Scoliidae a été décrite par l'entomologiste français Pierre André Latreille en 1802.
 			Scolia hirta
 			Scolia soror syn. Austroscolia soror
-Taxinomie
-Cette famille se décompose en deux sous-familles :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Scoliidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scoliidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette famille se décompose en deux sous-familles :
 Proscoliinae
 genre Proscolia Rasnitsyn, 1977
 Scoliinae
